--- a/trend_results/Rivers/NgatahakaStreamatusMakakahiConfl_376fd30df5.xlsx
+++ b/trend_results/Rivers/NgatahakaStreamatusMakakahiConfl_376fd30df5.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.129097523791973</v>
+        <v>0.870902476208027</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.962074323489614</v>
+        <v>0.037925676510386</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.287177277331182</v>
+        <v>0.712822722668818</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.691912603013713</v>
+        <v>0.308087396986287</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">

--- a/trend_results/Rivers/NgatahakaStreamatusMakakahiConfl_376fd30df5.xlsx
+++ b/trend_results/Rivers/NgatahakaStreamatusMakakahiConfl_376fd30df5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.864547147435709</v>
+        <v>0.090584708351934</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8297872340425529</v>
+        <v>0.878048780487805</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -588,16 +588,16 @@
         <v>1.75</v>
       </c>
       <c r="K2" t="n">
-        <v>0.153184796854522</v>
+        <v>-0.270776032386542</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0728188512646944</v>
+        <v>-0.452700417450353</v>
       </c>
       <c r="M2" t="n">
-        <v>0.399817837823088</v>
+        <v>0.0522736695999696</v>
       </c>
       <c r="N2" t="n">
-        <v>8.75341696311553</v>
+        <v>-15.4729161363738</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.870902476208027</v>
+        <v>0.930355317156576</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9649122807017541</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.37</v>
+        <v>10.55</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0930399307970511</v>
+        <v>0.0903090659340658</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0532178770291638</v>
+        <v>-0.0026031022036292</v>
       </c>
       <c r="M3" t="n">
-        <v>0.180313891296146</v>
+        <v>0.161179525443964</v>
       </c>
       <c r="N3" t="n">
-        <v>0.897202804214572</v>
+        <v>0.856010103640434</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0377590896349196</v>
+        <v>0.0268972636251813</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0689655172413793</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H4" t="n">
-        <v>0.344827586206897</v>
+        <v>0.355932203389831</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0105</v>
+        <v>0.011</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0008553864168618</v>
+        <v>0.0008263574660633</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0016894056088799</v>
+        <v>0.0017044711427244</v>
       </c>
       <c r="N4" t="n">
-        <v>8.146537303445969</v>
+        <v>7.5123406005759</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.839279586548626</v>
+        <v>0.808452611976192</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.859649122807018</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="K5" t="n">
-        <v>-41.4827884470742</v>
+        <v>-31.9721638655462</v>
       </c>
       <c r="L5" t="n">
-        <v>-121.982061244907</v>
+        <v>-95.58633239588811</v>
       </c>
       <c r="M5" t="n">
-        <v>41.0157184233746</v>
+        <v>40.8159913348991</v>
       </c>
       <c r="N5" t="n">
-        <v>-8.2307119934671</v>
+        <v>-6.86097937028889</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.613124143530402</v>
+        <v>0.296345907545194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.627450980392157</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
-        <v>0.392156862745098</v>
+        <v>0.418181818181818</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.262652805973303</v>
+        <v>0.9989431031227251</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0344827586206897</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H7" t="n">
-        <v>0.206896551724138</v>
+        <v>0.203389830508475</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1043,16 +1043,16 @@
         <v>0.005</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.0007051158301158</v>
       </c>
       <c r="L7" t="n">
-        <v>-4.52192154978084e-05</v>
+        <v>-0.0011230794098221</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0005876683575762001</v>
+        <v>-0.0002864060652058</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-14.1023166023166</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0449824875182887</v>
+        <v>0.174072312476531</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9655172413793101</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7795</v>
+        <v>0.759</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06404884482094721</v>
+        <v>0.0204279879894542</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003242610228075</v>
+        <v>-0.0194418172628238</v>
       </c>
       <c r="M8" t="n">
-        <v>0.129958358622767</v>
+        <v>0.0641505008625677</v>
       </c>
       <c r="N8" t="n">
-        <v>8.21665744976873</v>
+        <v>2.69143451771465</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.037925676510386</v>
+        <v>0.730065546585735</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.75</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1225,16 +1225,16 @@
         <v>7.52</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0413336134453785</v>
+        <v>0.0160795505930081</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.08057081056059839</v>
+        <v>-0.0258916669209534</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.0575964701180756</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.54964911496514</v>
+        <v>0.213823811077235</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0232697904235028</v>
+        <v>0.258001467721793</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.896551724137931</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06742121271585561</v>
+        <v>0.0157627713505785</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0095127553912937</v>
+        <v>-0.0256804460892827</v>
       </c>
       <c r="M10" t="n">
-        <v>0.125592049534161</v>
+        <v>0.0542541012938056</v>
       </c>
       <c r="N10" t="n">
-        <v>8.32360650813032</v>
+        <v>1.99528751273145</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.322968908323633</v>
+        <v>0.096383983600694</v>
       </c>
       <c r="G11" t="n">
-        <v>0.315789473684211</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.315789473684211</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.047316180060541</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-0.008457159479602201</v>
       </c>
       <c r="M11" t="n">
-        <v>0.499122188986206</v>
+        <v>0.102488575538423</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4.18727257172929</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.0132888816825081</v>
+        <v>0.159845054659122</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.931034482758621</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.14</v>
+        <v>0.031</v>
       </c>
       <c r="K12" t="n">
-        <v>0.103210361067504</v>
+        <v>0.0012963620230701</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0245089612670568</v>
+        <v>-0.0010332545614429</v>
       </c>
       <c r="M12" t="n">
-        <v>0.142006392783768</v>
+        <v>0.0035295880169089</v>
       </c>
       <c r="N12" t="n">
-        <v>9.053540444517891</v>
+        <v>4.18181297764548</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.277217361203933</v>
+        <v>0.311892539212958</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.637931034482759</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0295</v>
+        <v>2.03</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0006776437847866</v>
+        <v>0.0939862466725821</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.00169594717683</v>
+        <v>-0.177473457830529</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0028306628384894</v>
+        <v>0.597097510630676</v>
       </c>
       <c r="N13" t="n">
-        <v>2.29709757554794</v>
+        <v>4.62986436810749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.59541555642008</v>
+        <v>0.042675788520649</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9655172413793101</v>
+        <v>0.804347826086957</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.055</v>
+        <v>1.765</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0401373626373627</v>
+        <v>-0.0705645992394113</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.315011991059865</v>
+        <v>-0.137920268675889</v>
       </c>
       <c r="M14" t="n">
-        <v>0.374537280489353</v>
+        <v>-0.0003708252604886</v>
       </c>
       <c r="N14" t="n">
-        <v>-1.95315633271838</v>
+        <v>-3.99799429118478</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.09290609066639299</v>
+        <v>0.932968326068268</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.816326530612245</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.855</v>
+        <v>10.38</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.04995820668693</v>
+        <v>0.0366750342309449</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.103118270424174</v>
+        <v>-0.0016850033571799</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0102984022556391</v>
+        <v>0.0752960681523757</v>
       </c>
       <c r="N15" t="n">
-        <v>-2.69316478096658</v>
+        <v>0.353324029199854</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0029396123529358</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0847457627118644</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.203389830508475</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.712822722668818</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>10.37</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0200686813186809</v>
+        <v>0.0003983097055616</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0315982798976752</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0497335069117812</v>
+        <v>0.0006522321428571</v>
       </c>
       <c r="N16" t="n">
-        <v>0.193526338656518</v>
+        <v>4.42566339512905</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0013266585871082</v>
+        <v>0.300471973970324</v>
       </c>
       <c r="G17" t="n">
-        <v>0.101694915254237</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H17" t="n">
-        <v>0.186440677966102</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008999999999999999</v>
+        <v>430</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0004185446906035</v>
+        <v>6.36299778365625</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001427675940571</v>
+        <v>-12.598638039041</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0006739680588324</v>
+        <v>33.86685027962</v>
       </c>
       <c r="N17" t="n">
-        <v>4.65049656226127</v>
+        <v>1.47976692643169</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0172411338533464</v>
+        <v>0.0053466802057503</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008547008547008499</v>
+        <v>0.711711711711712</v>
       </c>
       <c r="H18" t="n">
-        <v>0.777777777777778</v>
+        <v>0.306306306306306</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>360</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>19.6900269541779</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>3.33991427592117</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>43.8756051896212</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>5.46945193171608</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0071501082383864</v>
+        <v>0.988519531310788</v>
       </c>
       <c r="G19" t="n">
-        <v>0.756756756756757</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H19" t="n">
-        <v>0.261261261261261</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0.005</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.000209552495697</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0003865079365079</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-4.19104991394148</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.494405039660226</v>
+        <v>0.992973132140757</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0593220338983051</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.169491525423729</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0055</v>
+        <v>0.8715000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.0260016194633009</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0001597483992037</v>
+        <v>-0.0363792687966431</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0001612740305408</v>
+        <v>-0.0084847895347736</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-2.98354784432597</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.552522460519809</v>
+        <v>0.691065068066071</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.966101694915254</v>
+        <v>0.568965517241379</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.882</v>
+        <v>7.5</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0021624057551873</v>
+        <v>0.0035098399579426</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0205238828072276</v>
+        <v>-0.0085668007497577</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0153763957940808</v>
+        <v>0.0166223354250764</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.245170720542778</v>
+        <v>0.0467978661059015</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.308087396986287</v>
+        <v>0.994393559399173</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.551724137931034</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.485</v>
+        <v>0.9</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0041411564625851</v>
+        <v>-0.0265878070973612</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.015758421653005</v>
+        <v>-0.0359578493913761</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0083708938120702</v>
+        <v>-0.0099687177833566</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.0553260716444247</v>
+        <v>-2.95420078859569</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.5</v>
+        <v>0.952026335382588</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.813559322033898</v>
+        <v>0.855932203389831</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9</v>
+        <v>1.185</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0003336748554451</v>
+        <v>-0.015158592082378</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0204535099359847</v>
+        <v>-0.0298163265306122</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0169475774726173</v>
+        <v>-0.000731757675101</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0370749839383445</v>
+        <v>-1.2792060829011</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.08923620831906549</v>
+        <v>0.0029227026391844</v>
       </c>
       <c r="G24" t="n">
-        <v>0.239316239316239</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.247863247863248</v>
+        <v>0.466101694915254</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>0.028</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0010435714285714</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.0003994385168363</v>
       </c>
       <c r="M24" t="n">
-        <v>0.179970667698957</v>
+        <v>0.0017566675807018</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>3.72704081632653</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.317215750166764</v>
+        <v>0.0550269419174607</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.864406779661017</v>
+        <v>0.906779661016949</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.185</v>
+        <v>1.935</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0049932790423861</v>
+        <v>0.0829617453676031</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.014912893881322</v>
+        <v>-0.0019046752017114</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0279222977340007</v>
+        <v>0.20875387440993</v>
       </c>
       <c r="N25" t="n">
-        <v>0.421373758851155</v>
+        <v>4.28742870116812</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2721,188 +2721,6 @@
         </is>
       </c>
       <c r="W25" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>10</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.0004356211442579</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.440677966101695</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.0011825171995143</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.0006004977324767</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.0018573506474546</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.37969333153469</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Exceptionally unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>1827830.498</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5496951.677</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>Mana_8d</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Ngatahaka Stream at u/s Makakahi Confl</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>10</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.0248149933171264</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.906779661016949</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.815</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.0880936920222634</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.0121779560533127</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.190958224044005</v>
-      </c>
-      <c r="N27" t="n">
-        <v>4.8536469433754</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Extremely unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>1827830.498</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5496951.677</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Mana_8d</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/NgatahakaStreamatusMakakahiConfl_376fd30df5.xlsx
+++ b/trend_results/Rivers/NgatahakaStreamatusMakakahiConfl_376fd30df5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -88,78 +88,93 @@
     <t>Ngatahaka Stream at u/s Makakahi Confl</t>
   </si>
   <si>
+    <t>Dissolved Oxygen Concentration</t>
+  </si>
+  <si>
+    <t>Dissolved Reactive Phosphorus</t>
+  </si>
+  <si>
+    <t>E. coli</t>
+  </si>
+  <si>
+    <t>Ammoniacal Nitrogen (NH4)</t>
+  </si>
+  <si>
+    <t>Nitrite Nitrogen (NO2)</t>
+  </si>
+  <si>
+    <t>Nitrate Nitrogen (NO3)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>SIN (Soluble Inorganic nitrogen)</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
     <t>Visual Clarity</t>
   </si>
   <si>
-    <t>Dissolved Oxygen Concentration</t>
-  </si>
-  <si>
-    <t>Dissolved Reactive Phosphorus</t>
-  </si>
-  <si>
-    <t>E. coli</t>
-  </si>
-  <si>
-    <t>Ammoniacal Nitrogen (NH4)</t>
-  </si>
-  <si>
-    <t>Nitrite Nitrogen (NO2)</t>
-  </si>
-  <si>
-    <t>Nitrate Nitrogen (NO3)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>SIN (Soluble Inorganic nitrogen)</t>
-  </si>
-  <si>
-    <t>Total Nitrogen</t>
-  </si>
-  <si>
-    <t>Total Phosphorus</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Virtually certain improving</t>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
   </si>
   <si>
     <t>Likely increasing</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
     <t>Tararua District</t>
   </si>
   <si>
@@ -172,19 +187,19 @@
     <t>Mana_8d</t>
   </si>
   <si>
+    <t>g/m3</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>E. coli/100 mL</t>
+  </si>
+  <si>
+    <t>NTU/FNU</t>
+  </si>
+  <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>g/m3</t>
-  </si>
-  <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>E. coli/100 mL</t>
-  </si>
-  <si>
-    <t>NTU/FNU</t>
   </si>
 </sst>
 </file>
@@ -542,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,43 +645,43 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.090584708351934</v>
+        <v>0.989705533179159</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.878048780487805</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.75</v>
+        <v>10.58</v>
       </c>
       <c r="K2">
-        <v>-0.270776032386542</v>
+        <v>0.163058035714286</v>
       </c>
       <c r="L2">
-        <v>-0.452700417450353</v>
+        <v>0.0300502819591726</v>
       </c>
       <c r="M2">
-        <v>0.0522736695999696</v>
+        <v>0.227445054945055</v>
       </c>
       <c r="N2">
-        <v>-15.4729161363738</v>
+        <v>1.54119126384013</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>1827830.498</v>
@@ -675,19 +690,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -701,43 +716,43 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>0.554779863387882</v>
+      </c>
+      <c r="G3">
+        <v>0.0847457627118644</v>
+      </c>
+      <c r="H3">
+        <v>0.372881355932203</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3">
-        <v>0.930355317156576</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.931034482758621</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
-        <v>10.55</v>
+        <v>0.01</v>
       </c>
       <c r="K3">
-        <v>0.0903090659340658</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.0026031022036292</v>
+        <v>-0.0010576737451737</v>
       </c>
       <c r="M3">
-        <v>0.161179525443964</v>
+        <v>0.0007446897663775</v>
       </c>
       <c r="N3">
-        <v>0.856010103640434</v>
+        <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>1827830.498</v>
@@ -746,19 +761,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -778,37 +793,37 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.0268972636251813</v>
+        <v>0.991513779919167</v>
       </c>
       <c r="G4">
-        <v>0.0677966101694915</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.355932203389831</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.011</v>
+        <v>293.2</v>
       </c>
       <c r="K4">
-        <v>0.0008263574660633</v>
+        <v>-80.84679802955669</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-156.278103551019</v>
       </c>
       <c r="M4">
-        <v>0.0017044711427244</v>
+        <v>-20.6584360013712</v>
       </c>
       <c r="N4">
-        <v>7.5123406005759</v>
+        <v>-27.5739420291803</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>1827830.498</v>
@@ -817,19 +832,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -846,40 +861,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5">
-        <v>0.808452611976192</v>
+        <v>0.955271202988805</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="H5">
-        <v>0.879310344827586</v>
+        <v>0.403508771929825</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>466</v>
+        <v>0.005</v>
       </c>
       <c r="K5">
-        <v>-31.9721638655462</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-95.58633239588811</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>40.8159913348991</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>-6.86097937028889</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q5">
         <v>1827830.498</v>
@@ -888,19 +903,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -920,37 +935,37 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>0.296345907545194</v>
+        <v>0.999999057723307</v>
       </c>
       <c r="G6">
-        <v>0.6</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="H6">
-        <v>0.418181818181818</v>
+        <v>0.169491525423729</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-0.0010946553446553</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-0.0014921975201032</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-0.0007340809854652</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-27.3663836163836</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q6">
         <v>1827830.498</v>
@@ -959,19 +974,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -985,40 +1000,40 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
       </c>
       <c r="F7">
-        <v>0.9989431031227251</v>
+        <v>0.8604918433943179</v>
       </c>
       <c r="G7">
-        <v>0.0338983050847458</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.203389830508475</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.005</v>
+        <v>0.703</v>
       </c>
       <c r="K7">
-        <v>-0.0007051158301158</v>
+        <v>-0.0476631181318681</v>
       </c>
       <c r="L7">
-        <v>-0.0011230794098221</v>
+        <v>-0.0756028356476957</v>
       </c>
       <c r="M7">
-        <v>-0.0002864060652058</v>
+        <v>0.0188494026740456</v>
       </c>
       <c r="N7">
-        <v>-14.1023166023166</v>
+        <v>-6.77995990495991</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
         <v>44</v>
@@ -1030,19 +1045,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1056,43 +1071,43 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.174072312476531</v>
+        <v>0.999674159929713</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.966101694915254</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.759</v>
+        <v>7.52</v>
       </c>
       <c r="K8">
-        <v>0.0204279879894542</v>
+        <v>0.081379423328965</v>
       </c>
       <c r="L8">
-        <v>-0.0194418172628238</v>
+        <v>0.0425121156211196</v>
       </c>
       <c r="M8">
-        <v>0.0641505008625677</v>
+        <v>0.122417256250939</v>
       </c>
       <c r="N8">
-        <v>2.69143451771465</v>
+        <v>1.08217318256602</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q8">
         <v>1827830.498</v>
@@ -1101,19 +1116,16 @@
         <v>5496951.677</v>
       </c>
       <c r="S8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>51</v>
-      </c>
-      <c r="W8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1127,43 +1139,43 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.730065546585735</v>
+        <v>0.935182709560494</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.736842105263158</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.52</v>
+        <v>0.76</v>
       </c>
       <c r="K9">
-        <v>0.0160795505930081</v>
+        <v>-0.0441798597501225</v>
       </c>
       <c r="L9">
-        <v>-0.0258916669209534</v>
+        <v>-0.07825407735602539</v>
       </c>
       <c r="M9">
-        <v>0.0575964701180756</v>
+        <v>-0.0040946614802086</v>
       </c>
       <c r="N9">
-        <v>0.213823811077235</v>
+        <v>-5.81313944080559</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1827830.498</v>
@@ -1172,16 +1184,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="W9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1201,7 +1216,7 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.258001467721793</v>
+        <v>0.9515309057858</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1213,22 +1228,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.79</v>
+        <v>1.09</v>
       </c>
       <c r="K10">
-        <v>0.0157627713505785</v>
+        <v>-0.0570982744365507</v>
       </c>
       <c r="L10">
-        <v>-0.0256804460892827</v>
+        <v>-0.105937469979171</v>
       </c>
       <c r="M10">
-        <v>0.0542541012938056</v>
+        <v>-0.0160193857803115</v>
       </c>
       <c r="N10">
-        <v>1.99528751273145</v>
+        <v>-5.23837380151841</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
         <v>43</v>
@@ -1240,19 +1255,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1266,43 +1281,43 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.096383983600694</v>
+        <v>0.951152438560502</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.932203389830508</v>
+        <v>0.627118644067797</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.13</v>
+        <v>0.029</v>
       </c>
       <c r="K11">
-        <v>0.047316180060541</v>
+        <v>-0.0021112716763005</v>
       </c>
       <c r="L11">
-        <v>-0.008457159479602201</v>
+        <v>-0.0053516483516483</v>
       </c>
       <c r="M11">
-        <v>0.102488575538423</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>4.18727257172929</v>
+        <v>-7.28024715965716</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q11">
         <v>1827830.498</v>
@@ -1311,19 +1326,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1337,43 +1352,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.159845054659122</v>
+        <v>0.693284313522417</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.644067796610169</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.031</v>
+        <v>2.03</v>
       </c>
       <c r="K12">
-        <v>0.0012963620230701</v>
+        <v>-0.135463598901099</v>
       </c>
       <c r="L12">
-        <v>-0.0010332545614429</v>
+        <v>-0.408349941579026</v>
       </c>
       <c r="M12">
-        <v>0.0035295880169089</v>
+        <v>0.07510578128414749</v>
       </c>
       <c r="N12">
-        <v>4.18181297764548</v>
+        <v>-6.67308368970931</v>
       </c>
       <c r="O12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q12">
         <v>1827830.498</v>
@@ -1382,19 +1397,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1405,7 +1420,7 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1414,37 +1429,37 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.311892539212958</v>
+        <v>0.017667643973392</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.949152542372881</v>
+        <v>0.807228915662651</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2.03</v>
+        <v>1.75</v>
       </c>
       <c r="K13">
-        <v>0.0939862466725821</v>
+        <v>-0.105182100508187</v>
       </c>
       <c r="L13">
-        <v>-0.177473457830529</v>
+        <v>-0.197138016082475</v>
       </c>
       <c r="M13">
-        <v>0.597097510630676</v>
+        <v>-0.0249483578386746</v>
       </c>
       <c r="N13">
-        <v>4.62986436810749</v>
+        <v>-6.010405743325</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q13">
         <v>1827830.498</v>
@@ -1453,19 +1468,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1479,43 +1494,43 @@
         <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.042675788520649</v>
+        <v>0.991351333564727</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.804347826086957</v>
+        <v>0.88034188034188</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.765</v>
+        <v>10.46</v>
       </c>
       <c r="K14">
-        <v>-0.0705645992394113</v>
+        <v>0.0524282296650715</v>
       </c>
       <c r="L14">
-        <v>-0.137920268675889</v>
+        <v>0.0163939349853137</v>
       </c>
       <c r="M14">
-        <v>-0.0003708252604886</v>
+        <v>0.0911997166354713</v>
       </c>
       <c r="N14">
-        <v>-3.99799429118478</v>
+        <v>0.501225905019804</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q14">
         <v>1827830.498</v>
@@ -1524,19 +1539,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1550,43 +1565,43 @@
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.932968326068268</v>
+        <v>0.0659137954366343</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H15">
-        <v>0.871794871794872</v>
+        <v>0.194915254237288</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>10.38</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K15">
-        <v>0.0366750342309449</v>
+        <v>0.0001667047010497</v>
       </c>
       <c r="L15">
-        <v>-0.0016850033571799</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0752960681523757</v>
+        <v>0.0004141156462585</v>
       </c>
       <c r="N15">
-        <v>0.353324029199854</v>
+        <v>1.85227445610832</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1827830.498</v>
@@ -1595,19 +1610,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1627,37 +1642,37 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.0029396123529358</v>
+        <v>0.852229313607728</v>
       </c>
       <c r="G16">
-        <v>0.0847457627118644</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H16">
-        <v>0.203389830508475</v>
+        <v>0.803418803418803</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.008999999999999999</v>
+        <v>350</v>
       </c>
       <c r="K16">
-        <v>0.0003983097055616</v>
+        <v>-9.71936251262124</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>-29.665473141033</v>
       </c>
       <c r="M16">
-        <v>0.0006522321428571</v>
+        <v>5.96326530612245</v>
       </c>
       <c r="N16">
-        <v>4.42566339512905</v>
+        <v>-2.77696071789178</v>
       </c>
       <c r="O16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q16">
         <v>1827830.498</v>
@@ -1666,19 +1681,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,40 +1710,40 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17">
-        <v>0.300471973970324</v>
+        <v>0.116455514959984</v>
       </c>
       <c r="G17">
-        <v>0.008547008547008499</v>
+        <v>0.702702702702703</v>
       </c>
       <c r="H17">
-        <v>0.777777777777778</v>
+        <v>0.315315315315315</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>430</v>
+        <v>0.005</v>
       </c>
       <c r="K17">
-        <v>6.36299778365625</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>-12.598638039041</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>33.86685027962</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.47976692643169</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q17">
         <v>1827830.498</v>
@@ -1737,19 +1752,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,40 +1781,40 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18">
-        <v>0.0053466802057503</v>
+        <v>0.9999852907499071</v>
       </c>
       <c r="G18">
-        <v>0.711711711711712</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="H18">
-        <v>0.306306306306306</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0.005</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>-0.0004597230962869</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-0.0006778331995754</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-0.0002714465849985</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>-9.194461925739461</v>
       </c>
       <c r="O18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q18">
         <v>1827830.498</v>
@@ -1808,19 +1823,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1834,43 +1849,43 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
       </c>
       <c r="F19">
-        <v>0.988519531310788</v>
+        <v>0.999301557159832</v>
       </c>
       <c r="G19">
-        <v>0.0677966101694915</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.152542372881356</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.005</v>
+        <v>0.855</v>
       </c>
       <c r="K19">
-        <v>-0.000209552495697</v>
+        <v>-0.0317790215629694</v>
       </c>
       <c r="L19">
-        <v>-0.0003865079365079</v>
+        <v>-0.0484687999548307</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-0.0155452849197118</v>
       </c>
       <c r="N19">
-        <v>-4.19104991394148</v>
+        <v>-3.71684462724788</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q19">
         <v>1827830.498</v>
@@ -1879,19 +1894,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S19" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1905,43 +1920,43 @@
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.992973132140757</v>
+        <v>0.976344760841536</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.949152542372881</v>
+        <v>0.612068965517241</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8715000000000001</v>
+        <v>7.52</v>
       </c>
       <c r="K20">
-        <v>-0.0260016194633009</v>
+        <v>0.0166910755813953</v>
       </c>
       <c r="L20">
-        <v>-0.0363792687966431</v>
+        <v>0.002308786346397</v>
       </c>
       <c r="M20">
-        <v>-0.0084847895347736</v>
+        <v>0.0279759265931356</v>
       </c>
       <c r="N20">
-        <v>-2.98354784432597</v>
+        <v>0.221955792305788</v>
       </c>
       <c r="O20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q20">
         <v>1827830.498</v>
@@ -1950,19 +1965,16 @@
         <v>5496951.677</v>
       </c>
       <c r="S20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>51</v>
-      </c>
-      <c r="W20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1976,43 +1988,43 @@
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.691065068066071</v>
+        <v>0.9995221061777551</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.568965517241379</v>
+        <v>0.754237288135593</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.5</v>
+        <v>0.885</v>
       </c>
       <c r="K21">
-        <v>0.0035098399579426</v>
+        <v>-0.0315619955234052</v>
       </c>
       <c r="L21">
-        <v>-0.0085668007497577</v>
+        <v>-0.0452863479578352</v>
       </c>
       <c r="M21">
-        <v>0.0166223354250764</v>
+        <v>-0.0167173776482506</v>
       </c>
       <c r="N21">
-        <v>0.0467978661059015</v>
+        <v>-3.5663271777859</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q21">
         <v>1827830.498</v>
@@ -2021,16 +2033,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S21" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="W21" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2050,37 +2065,37 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.994393559399173</v>
+        <v>0.998180419575591</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.813559322033898</v>
+        <v>0.8050847457627121</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9</v>
+        <v>1.17</v>
       </c>
       <c r="K22">
-        <v>-0.0265878070973612</v>
+        <v>-0.0249857644037483</v>
       </c>
       <c r="L22">
-        <v>-0.0359578493913761</v>
+        <v>-0.0398507857155354</v>
       </c>
       <c r="M22">
-        <v>-0.0099687177833566</v>
+        <v>-0.0124829118250171</v>
       </c>
       <c r="N22">
-        <v>-2.95420078859569</v>
+        <v>-2.13553541912378</v>
       </c>
       <c r="O22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q22">
         <v>1827830.498</v>
@@ -2089,19 +2104,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S22" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W22" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2115,43 +2130,43 @@
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.952026335382588</v>
+        <v>0.166407932047291</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.855932203389831</v>
+        <v>0.449152542372881</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.185</v>
+        <v>0.028</v>
       </c>
       <c r="K23">
-        <v>-0.015158592082378</v>
+        <v>0.0003240905057675</v>
       </c>
       <c r="L23">
-        <v>-0.0298163265306122</v>
+        <v>-0.000233976760064</v>
       </c>
       <c r="M23">
-        <v>-0.000731757675101</v>
+        <v>0.0009722715173025</v>
       </c>
       <c r="N23">
-        <v>-1.2792060829011</v>
+        <v>1.15746609202687</v>
       </c>
       <c r="O23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q23">
         <v>1827830.498</v>
@@ -2160,19 +2175,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W23" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2192,37 +2207,37 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.0029227026391844</v>
+        <v>0.459241692717553</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.466101694915254</v>
+        <v>0.889830508474576</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.028</v>
+        <v>1.935</v>
       </c>
       <c r="K24">
-        <v>0.0010435714285714</v>
+        <v>0.0043847539015606</v>
       </c>
       <c r="L24">
-        <v>0.0003994385168363</v>
+        <v>-0.057293257618167</v>
       </c>
       <c r="M24">
-        <v>0.0017566675807018</v>
+        <v>0.0910900910513771</v>
       </c>
       <c r="N24">
-        <v>3.72704081632653</v>
+        <v>0.226602268814501</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q24">
         <v>1827830.498</v>
@@ -2231,19 +2246,19 @@
         <v>5496951.677</v>
       </c>
       <c r="S24" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W24" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2251,70 +2266,777 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.0550269419174607</v>
+        <v>0.6489097115044899</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.906779661016949</v>
+        <v>0.845679012345679</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.935</v>
+        <v>10.445</v>
       </c>
       <c r="K25">
-        <v>0.0829617453676031</v>
+        <v>0.0100343406593404</v>
       </c>
       <c r="L25">
-        <v>-0.0019046752017114</v>
+        <v>-0.016617379435851</v>
       </c>
       <c r="M25">
-        <v>0.20875387440993</v>
+        <v>0.0314338191030925</v>
       </c>
       <c r="N25">
-        <v>4.28742870116812</v>
+        <v>0.0960683643785586</v>
       </c>
       <c r="O25" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q25">
+        <v>1827830.498</v>
+      </c>
+      <c r="R25">
+        <v>5496951.677</v>
+      </c>
+      <c r="S25" t="s">
+        <v>53</v>
+      </c>
+      <c r="T25" t="s">
+        <v>54</v>
+      </c>
+      <c r="U25" t="s">
+        <v>55</v>
+      </c>
+      <c r="V25" t="s">
+        <v>56</v>
+      </c>
+      <c r="W25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26">
+        <v>0.006321153379058</v>
+      </c>
+      <c r="G26">
+        <v>0.0920245398773006</v>
+      </c>
+      <c r="H26">
+        <v>0.147239263803681</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K26">
+        <v>0.000181806869089</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0.0003350352585015</v>
+      </c>
+      <c r="N26">
+        <v>2.02007632321221</v>
+      </c>
+      <c r="O26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q26">
+        <v>1827830.498</v>
+      </c>
+      <c r="R26">
+        <v>5496951.677</v>
+      </c>
+      <c r="S26" t="s">
+        <v>53</v>
+      </c>
+      <c r="T26" t="s">
+        <v>54</v>
+      </c>
+      <c r="U26" t="s">
+        <v>55</v>
+      </c>
+      <c r="V26" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27">
+        <v>0.143524520872505</v>
+      </c>
+      <c r="G27">
+        <v>0.0061728395061728</v>
+      </c>
+      <c r="H27">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>296.6</v>
+      </c>
+      <c r="K27">
+        <v>5.52885525070956</v>
+      </c>
+      <c r="L27">
+        <v>-2.83806399780975</v>
+      </c>
+      <c r="M27">
+        <v>17.2940364726715</v>
+      </c>
+      <c r="N27">
+        <v>1.8640779671981</v>
+      </c>
+      <c r="O27" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q27">
+        <v>1827830.498</v>
+      </c>
+      <c r="R27">
+        <v>5496951.677</v>
+      </c>
+      <c r="S27" t="s">
+        <v>53</v>
+      </c>
+      <c r="T27" t="s">
+        <v>54</v>
+      </c>
+      <c r="U27" t="s">
+        <v>55</v>
+      </c>
+      <c r="V27" t="s">
+        <v>56</v>
+      </c>
+      <c r="W27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
         <v>38</v>
       </c>
-      <c r="P25" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q25">
-        <v>1827830.498</v>
-      </c>
-      <c r="R25">
-        <v>5496951.677</v>
-      </c>
-      <c r="S25" t="s">
-        <v>48</v>
-      </c>
-      <c r="T25" t="s">
+      <c r="F28">
+        <v>0.104938482800211</v>
+      </c>
+      <c r="G28">
+        <v>0.7307692307692309</v>
+      </c>
+      <c r="H28">
+        <v>0.288461538461538</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>0.005</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" t="s">
         <v>49</v>
       </c>
-      <c r="U25" t="s">
-        <v>50</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="Q28">
+        <v>1827830.498</v>
+      </c>
+      <c r="R28">
+        <v>5496951.677</v>
+      </c>
+      <c r="S28" t="s">
+        <v>53</v>
+      </c>
+      <c r="T28" t="s">
+        <v>54</v>
+      </c>
+      <c r="U28" t="s">
+        <v>55</v>
+      </c>
+      <c r="V28" t="s">
+        <v>56</v>
+      </c>
+      <c r="W28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29">
+        <v>0.549428554746157</v>
+      </c>
+      <c r="G29">
+        <v>0.165644171779141</v>
+      </c>
+      <c r="H29">
+        <v>0.122699386503067</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0.004</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>-8.498138669148439E-05</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29">
+        <v>1827830.498</v>
+      </c>
+      <c r="R29">
+        <v>5496951.677</v>
+      </c>
+      <c r="S29" t="s">
+        <v>53</v>
+      </c>
+      <c r="T29" t="s">
+        <v>54</v>
+      </c>
+      <c r="U29" t="s">
+        <v>55</v>
+      </c>
+      <c r="V29" t="s">
+        <v>56</v>
+      </c>
+      <c r="W29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30">
+        <v>0.96864437024283</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0.920245398773006</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.85</v>
+      </c>
+      <c r="K30">
+        <v>-0.0120320466268495</v>
+      </c>
+      <c r="L30">
+        <v>-0.0221078213026117</v>
+      </c>
+      <c r="M30">
+        <v>-0.0019946969595038</v>
+      </c>
+      <c r="N30">
+        <v>-1.41553489727641</v>
+      </c>
+      <c r="O30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q30">
+        <v>1827830.498</v>
+      </c>
+      <c r="R30">
+        <v>5496951.677</v>
+      </c>
+      <c r="S30" t="s">
+        <v>53</v>
+      </c>
+      <c r="T30" t="s">
+        <v>54</v>
+      </c>
+      <c r="U30" t="s">
+        <v>55</v>
+      </c>
+      <c r="V30" t="s">
+        <v>56</v>
+      </c>
+      <c r="W30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31">
+        <v>0.716733911690444</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0.503105590062112</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>7.52</v>
+      </c>
+      <c r="K31">
+        <v>0.0029119086848849</v>
+      </c>
+      <c r="L31">
+        <v>-0.0056833333660297</v>
+      </c>
+      <c r="M31">
+        <v>0.0118587662337661</v>
+      </c>
+      <c r="N31">
+        <v>0.0387221899585765</v>
+      </c>
+      <c r="O31" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q31">
+        <v>1827830.498</v>
+      </c>
+      <c r="R31">
+        <v>5496951.677</v>
+      </c>
+      <c r="S31" t="s">
+        <v>53</v>
+      </c>
+      <c r="T31" t="s">
+        <v>54</v>
+      </c>
+      <c r="U31" t="s">
+        <v>55</v>
+      </c>
+      <c r="V31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <v>0.970899128930143</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.8159509202453989</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.88</v>
+      </c>
+      <c r="K32">
+        <v>-0.0131444108018784</v>
+      </c>
+      <c r="L32">
+        <v>-0.0237095143626533</v>
+      </c>
+      <c r="M32">
+        <v>-0.0023522209965337</v>
+      </c>
+      <c r="N32">
+        <v>-1.493683045668</v>
+      </c>
+      <c r="O32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q32">
+        <v>1827830.498</v>
+      </c>
+      <c r="R32">
+        <v>5496951.677</v>
+      </c>
+      <c r="S32" t="s">
+        <v>53</v>
+      </c>
+      <c r="T32" t="s">
+        <v>54</v>
+      </c>
+      <c r="U32" t="s">
+        <v>55</v>
+      </c>
+      <c r="V32" t="s">
+        <v>56</v>
+      </c>
+      <c r="W32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33">
+        <v>0.933098973741711</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0.760736196319018</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1.17</v>
+      </c>
+      <c r="K33">
+        <v>-0.0100830510508909</v>
+      </c>
+      <c r="L33">
+        <v>-0.0199902208551491</v>
+      </c>
+      <c r="M33">
+        <v>0.0009798627929228001</v>
+      </c>
+      <c r="N33">
+        <v>-0.861799235118877</v>
+      </c>
+      <c r="O33" t="s">
+        <v>39</v>
+      </c>
+      <c r="P33" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q33">
+        <v>1827830.498</v>
+      </c>
+      <c r="R33">
+        <v>5496951.677</v>
+      </c>
+      <c r="S33" t="s">
+        <v>53</v>
+      </c>
+      <c r="T33" t="s">
+        <v>54</v>
+      </c>
+      <c r="U33" t="s">
+        <v>55</v>
+      </c>
+      <c r="V33" t="s">
+        <v>56</v>
+      </c>
+      <c r="W33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34">
+        <v>0.0003255511252921</v>
+      </c>
+      <c r="G34">
+        <v>0.0061349693251533</v>
+      </c>
+      <c r="H34">
+        <v>0.355828220858896</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0.027</v>
+      </c>
+      <c r="K34">
+        <v>0.000771111893033</v>
+      </c>
+      <c r="L34">
+        <v>0.0003923200859291</v>
+      </c>
+      <c r="M34">
+        <v>0.0011273677141346</v>
+      </c>
+      <c r="N34">
+        <v>2.85596997419657</v>
+      </c>
+      <c r="O34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" t="s">
         <v>51</v>
       </c>
-      <c r="W25" t="s">
-        <v>56</v>
+      <c r="Q34">
+        <v>1827830.498</v>
+      </c>
+      <c r="R34">
+        <v>5496951.677</v>
+      </c>
+      <c r="S34" t="s">
+        <v>53</v>
+      </c>
+      <c r="T34" t="s">
+        <v>54</v>
+      </c>
+      <c r="U34" t="s">
+        <v>55</v>
+      </c>
+      <c r="V34" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35">
+        <v>0.28588844124574</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0.846625766871166</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1.81</v>
+      </c>
+      <c r="K35">
+        <v>0.0126647018030513</v>
+      </c>
+      <c r="L35">
+        <v>-0.026294599786596</v>
+      </c>
+      <c r="M35">
+        <v>0.0617830216279112</v>
+      </c>
+      <c r="N35">
+        <v>0.699707281936536</v>
+      </c>
+      <c r="O35" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q35">
+        <v>1827830.498</v>
+      </c>
+      <c r="R35">
+        <v>5496951.677</v>
+      </c>
+      <c r="S35" t="s">
+        <v>53</v>
+      </c>
+      <c r="T35" t="s">
+        <v>54</v>
+      </c>
+      <c r="U35" t="s">
+        <v>55</v>
+      </c>
+      <c r="V35" t="s">
+        <v>56</v>
+      </c>
+      <c r="W35" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
